--- a/medicine/Pharmacie/Algorithme_de_Naranjo/Algorithme_de_Naranjo.xlsx
+++ b/medicine/Pharmacie/Algorithme_de_Naranjo/Algorithme_de_Naranjo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'algorithme de Naranjo, aussi appelé échelle de Naranjo ou nomogramme de Naranjo est un questionnaire conçu par Naranjo et al. pour déterminer la probabilité qu'une réaction indésirable à un médicament (en anglais ADR pour adverse drug reaction) est réellement due au médicament plutôt qu'à d'autres facteurs. Une probabilité est affectée sur une échelle « certain, probable, possible, douteux » à partir d'une série de notes. Les scores obtenus par cet algorithme sont parfois utilisés dans les critiques de pairs pour vérifier la validité des conclusions de l'auteur au sujet des réactions indésirables.
 </t>
@@ -511,7 +523,9 @@
           <t>Questionnaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1. Y a-t-il déjà eu des rapports concluants sur cette réaction ?
 Oui (+1) Non (0) Inconnu ou non testé (0)
@@ -560,7 +574,9 @@
           <t>Notation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>≥ 9 = réaction négative certaine
 5 à 8 = réaction négative probable
